--- a/www/Survey_data.xlsx
+++ b/www/Survey_data.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slakshminarayanan\Desktop\Reckitt_shiny_app\code\V1\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A4A3FE-AC3D-4097-A5DA-00B0045353DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649DCAF8-EF51-4DAA-8B08-4B07171B9FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="34">
   <si>
     <t>Row Labels</t>
   </si>
@@ -92,9 +93,6 @@
     <t>Romania</t>
   </si>
   <si>
-    <t>Share_of_population_taking_Rx</t>
-  </si>
-  <si>
     <t>Share_of_population_taking_alternatives</t>
   </si>
   <si>
@@ -132,6 +130,21 @@
   </si>
   <si>
     <t>Person4_dosage</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <t>Share_of_population_taking_Rx_ibuprofen</t>
+  </si>
+  <si>
+    <t>Share_of_population_taking_Rx_other_OTC</t>
+  </si>
+  <si>
+    <t>Share_of_population_taking_Rx_others</t>
+  </si>
+  <si>
+    <t>Person1_epi</t>
   </si>
 </sst>
 </file>
@@ -274,22 +287,22 @@
             <v>Common cold</v>
           </cell>
           <cell r="B2">
-            <v>0.77500000000000002</v>
+            <v>0.9</v>
           </cell>
           <cell r="C2">
-            <v>0.125</v>
+            <v>7.4999999999999997E-2</v>
           </cell>
           <cell r="D2">
-            <v>7.4999999999999997E-2</v>
+            <v>2.5000000000000001E-2</v>
           </cell>
           <cell r="E2">
-            <v>2.5000000000000001E-2</v>
+            <v>0</v>
           </cell>
           <cell r="F2">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="G2">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="H2">
             <v>2</v>
@@ -330,7 +343,7 @@
             <v>15</v>
           </cell>
           <cell r="G3">
-            <v>30</v>
+            <v>48</v>
           </cell>
           <cell r="H3">
             <v>0</v>
@@ -397,10 +410,10 @@
             <v>Body or muscle pain</v>
           </cell>
           <cell r="B5">
-            <v>0.77</v>
+            <v>0.83</v>
           </cell>
           <cell r="C5">
-            <v>0.23</v>
+            <v>0.17</v>
           </cell>
           <cell r="D5">
             <v>0</v>
@@ -409,10 +422,10 @@
             <v>0</v>
           </cell>
           <cell r="F5">
-            <v>3</v>
+            <v>10</v>
           </cell>
           <cell r="G5">
-            <v>1</v>
+            <v>18</v>
           </cell>
           <cell r="H5">
             <v>0</v>
@@ -438,10 +451,10 @@
             <v>Mouth or dental pain</v>
           </cell>
           <cell r="B6">
-            <v>0.89</v>
+            <v>1</v>
           </cell>
           <cell r="C6">
-            <v>0.11</v>
+            <v>0</v>
           </cell>
           <cell r="D6">
             <v>0</v>
@@ -450,7 +463,7 @@
             <v>0</v>
           </cell>
           <cell r="F6">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="G6">
             <v>1</v>
@@ -465,7 +478,7 @@
             <v>1200</v>
           </cell>
           <cell r="K6">
-            <v>2400</v>
+            <v>1200</v>
           </cell>
           <cell r="L6">
             <v>0</v>
@@ -743,10 +756,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O26"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -754,60 +768,69 @@
     <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.08984375" customWidth="1"/>
     <col min="3" max="3" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16.81640625" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="16.81640625" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -818,51 +841,67 @@
         <v>8</v>
       </c>
       <c r="D2" s="1">
+        <f>VLOOKUP(D$1&amp;$C2,Sheet2!$C:$H,MATCH($B2,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>3.896103896103896E-2</v>
       </c>
       <c r="E2" s="1">
-        <v>0.22077922077922077</v>
+        <f>VLOOKUP(E$1&amp;$C2,Sheet2!$C:$H,MATCH($B2,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F2" s="1">
+        <f>VLOOKUP(F$1&amp;$C2,Sheet2!$C:$H,MATCH($B2,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>5.1948051948051951E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <f>VLOOKUP(G$1&amp;$C2,Sheet2!$C:$H,MATCH($B2,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>2.5974025974025976E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <f>VLOOKUP(H$1&amp;$C2,Sheet2!$C:$H,MATCH($B2,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.19480519480519481</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
+        <f>VLOOKUP(I$1&amp;$C2,Sheet2!$C:$H,MATCH($B2,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.54545454545454541</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <f>VLOOKUP($C2,[1]Sheet1!$A:$M,2,0)</f>
         <v>0.9</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <f>VLOOKUP($C2,[1]Sheet1!$A:$M,3,0)</f>
         <v>0.1</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <f>VLOOKUP($C2,[1]Sheet1!$A:$M,4,0)</f>
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <f>VLOOKUP($C2,[1]Sheet1!$A:$M,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <f>VLOOKUP($C2,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <f>VLOOKUP($C2,[1]Sheet1!$A:$M,11,0)</f>
         <v>1200</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <f>VLOOKUP($C2,[1]Sheet1!$A:$M,12,0)</f>
         <v>0</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <f>VLOOKUP($C2,[1]Sheet1!$A:$M,13,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R2">
+        <f>VLOOKUP(C2,[1]Sheet1!$A:$F,6,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -873,51 +912,67 @@
         <v>8</v>
       </c>
       <c r="D3" s="1">
+        <f>VLOOKUP(D$1&amp;$C3,Sheet2!$C:$H,MATCH($B3,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>5.1948051948051951E-2</v>
       </c>
       <c r="E3" s="1">
-        <v>0.25974025974025972</v>
+        <f>VLOOKUP(E$1&amp;$C3,Sheet2!$C:$H,MATCH($B3,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.11688311688311688</v>
       </c>
       <c r="F3" s="1">
+        <f>VLOOKUP(F$1&amp;$C3,Sheet2!$C:$H,MATCH($B3,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>5.1948051948051951E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <f>VLOOKUP(G$1&amp;$C3,Sheet2!$C:$H,MATCH($B3,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <f>VLOOKUP(H$1&amp;$C3,Sheet2!$C:$H,MATCH($B3,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="G3" s="1">
+      <c r="I3" s="1">
+        <f>VLOOKUP(I$1&amp;$C3,Sheet2!$C:$H,MATCH($B3,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.41558441558441561</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <f>VLOOKUP($C3,[1]Sheet1!$A:$M,2,0)</f>
         <v>0.9</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <f>VLOOKUP($C3,[1]Sheet1!$A:$M,3,0)</f>
         <v>0.1</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <f>VLOOKUP($C3,[1]Sheet1!$A:$M,4,0)</f>
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <f>VLOOKUP($C3,[1]Sheet1!$A:$M,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <f>VLOOKUP($C3,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <f>VLOOKUP($C3,[1]Sheet1!$A:$M,11,0)</f>
         <v>1200</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <f>VLOOKUP($C3,[1]Sheet1!$A:$M,12,0)</f>
         <v>0</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <f>VLOOKUP($C3,[1]Sheet1!$A:$M,13,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R3">
+        <f>VLOOKUP(C3,[1]Sheet1!$A:$F,6,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -928,51 +983,67 @@
         <v>8</v>
       </c>
       <c r="D4" s="1">
+        <f>VLOOKUP(D$1&amp;$C4,Sheet2!$C:$H,MATCH($B4,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>2.9702970297029702E-2</v>
       </c>
       <c r="E4" s="1">
-        <v>0.32673267326732675</v>
+        <f>VLOOKUP(E$1&amp;$C4,Sheet2!$C:$H,MATCH($B4,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.22772277227722773</v>
       </c>
       <c r="F4" s="1">
+        <f>VLOOKUP(F$1&amp;$C4,Sheet2!$C:$H,MATCH($B4,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="G4" s="1">
+        <f>VLOOKUP(G$1&amp;$C4,Sheet2!$C:$H,MATCH($B4,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>8.9108910891089105E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <f>VLOOKUP(H$1&amp;$C4,Sheet2!$C:$H,MATCH($B4,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.13861386138613863</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
+        <f>VLOOKUP(I$1&amp;$C4,Sheet2!$C:$H,MATCH($B4,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.50495049504950495</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <f>VLOOKUP($C4,[1]Sheet1!$A:$M,2,0)</f>
         <v>0.9</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <f>VLOOKUP($C4,[1]Sheet1!$A:$M,3,0)</f>
         <v>0.1</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <f>VLOOKUP($C4,[1]Sheet1!$A:$M,4,0)</f>
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <f>VLOOKUP($C4,[1]Sheet1!$A:$M,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <f>VLOOKUP($C4,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <f>VLOOKUP($C4,[1]Sheet1!$A:$M,11,0)</f>
         <v>1200</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <f>VLOOKUP($C4,[1]Sheet1!$A:$M,12,0)</f>
         <v>0</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <f>VLOOKUP($C4,[1]Sheet1!$A:$M,13,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R4">
+        <f>VLOOKUP(C4,[1]Sheet1!$A:$F,6,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -983,51 +1054,67 @@
         <v>8</v>
       </c>
       <c r="D5" s="1">
+        <f>VLOOKUP(D$1&amp;$C5,Sheet2!$C:$H,MATCH($B5,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>0.25961538461538464</v>
+        <f>VLOOKUP(E$1&amp;$C5,Sheet2!$C:$H,MATCH($B5,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.18269230769230768</v>
       </c>
       <c r="F5" s="1">
+        <f>VLOOKUP(F$1&amp;$C5,Sheet2!$C:$H,MATCH($B5,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>2.8846153846153848E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <f>VLOOKUP(G$1&amp;$C5,Sheet2!$C:$H,MATCH($B5,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>4.807692307692308E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f>VLOOKUP(H$1&amp;$C5,Sheet2!$C:$H,MATCH($B5,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.125</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
+        <f>VLOOKUP(I$1&amp;$C5,Sheet2!$C:$H,MATCH($B5,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.57692307692307687</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <f>VLOOKUP($C5,[1]Sheet1!$A:$M,2,0)</f>
         <v>0.9</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <f>VLOOKUP($C5,[1]Sheet1!$A:$M,3,0)</f>
         <v>0.1</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <f>VLOOKUP($C5,[1]Sheet1!$A:$M,4,0)</f>
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <f>VLOOKUP($C5,[1]Sheet1!$A:$M,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <f>VLOOKUP($C5,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <f>VLOOKUP($C5,[1]Sheet1!$A:$M,11,0)</f>
         <v>1200</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <f>VLOOKUP($C5,[1]Sheet1!$A:$M,12,0)</f>
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <f>VLOOKUP($C5,[1]Sheet1!$A:$M,13,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R5">
+        <f>VLOOKUP(C5,[1]Sheet1!$A:$F,6,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1038,51 +1125,67 @@
         <v>8</v>
       </c>
       <c r="D6" s="1">
+        <f>VLOOKUP(D$1&amp;$C6,Sheet2!$C:$H,MATCH($B6,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>1.7699115044247787E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>0.23008849557522124</v>
+        <f>VLOOKUP(E$1&amp;$C6,Sheet2!$C:$H,MATCH($B6,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>8.8495575221238937E-2</v>
       </c>
       <c r="F6" s="1">
+        <f>VLOOKUP(F$1&amp;$C6,Sheet2!$C:$H,MATCH($B6,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>8.8495575221238937E-3</v>
+      </c>
+      <c r="G6" s="1">
+        <f>VLOOKUP(G$1&amp;$C6,Sheet2!$C:$H,MATCH($B6,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.13274336283185842</v>
+      </c>
+      <c r="H6" s="1">
+        <f>VLOOKUP(H$1&amp;$C6,Sheet2!$C:$H,MATCH($B6,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.15044247787610621</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
+        <f>VLOOKUP(I$1&amp;$C6,Sheet2!$C:$H,MATCH($B6,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.60176991150442483</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <f>VLOOKUP($C6,[1]Sheet1!$A:$M,2,0)</f>
         <v>0.9</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <f>VLOOKUP($C6,[1]Sheet1!$A:$M,3,0)</f>
         <v>0.1</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <f>VLOOKUP($C6,[1]Sheet1!$A:$M,4,0)</f>
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <f>VLOOKUP($C6,[1]Sheet1!$A:$M,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <f>VLOOKUP($C6,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <f>VLOOKUP($C6,[1]Sheet1!$A:$M,11,0)</f>
         <v>1200</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <f>VLOOKUP($C6,[1]Sheet1!$A:$M,12,0)</f>
         <v>0</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <f>VLOOKUP($C6,[1]Sheet1!$A:$M,13,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R6">
+        <f>VLOOKUP(C6,[1]Sheet1!$A:$F,6,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1093,51 +1196,67 @@
         <v>6</v>
       </c>
       <c r="D7" s="1">
+        <f>VLOOKUP(D$1&amp;$C7,Sheet2!$C:$H,MATCH($B7,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>1.7543859649122806E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>0.2982456140350877</v>
+        <f>VLOOKUP(E$1&amp;$C7,Sheet2!$C:$H,MATCH($B7,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.16374269005847952</v>
       </c>
       <c r="F7" s="1">
+        <f>VLOOKUP(F$1&amp;$C7,Sheet2!$C:$H,MATCH($B7,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <f>VLOOKUP(G$1&amp;$C7,Sheet2!$C:$H,MATCH($B7,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>9.9415204678362568E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f>VLOOKUP(H$1&amp;$C7,Sheet2!$C:$H,MATCH($B7,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.1871345029239766</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
+        <f>VLOOKUP(I$1&amp;$C7,Sheet2!$C:$H,MATCH($B7,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.49707602339181284</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <f>VLOOKUP($C7,[1]Sheet1!$A:$M,2,0)</f>
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="I7">
+        <v>0.9</v>
+      </c>
+      <c r="K7">
         <f>VLOOKUP($C7,[1]Sheet1!$A:$M,3,0)</f>
-        <v>0.125</v>
-      </c>
-      <c r="J7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L7">
         <f>VLOOKUP($C7,[1]Sheet1!$A:$M,4,0)</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="K7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M7">
         <f>VLOOKUP($C7,[1]Sheet1!$A:$M,5,0)</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <f>VLOOKUP($C7,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <f>VLOOKUP($C7,[1]Sheet1!$A:$M,11,0)</f>
         <v>1200</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <f>VLOOKUP($C7,[1]Sheet1!$A:$M,12,0)</f>
         <v>1200</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <f>VLOOKUP($C7,[1]Sheet1!$A:$M,13,0)</f>
         <v>1200</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R7">
+        <f>VLOOKUP(C7,[1]Sheet1!$A:$F,6,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1148,51 +1267,67 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
+        <f>VLOOKUP(D$1&amp;$C8,Sheet2!$C:$H,MATCH($B8,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>1.1834319526627219E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>0.36094674556213019</v>
+        <f>VLOOKUP(E$1&amp;$C8,Sheet2!$C:$H,MATCH($B8,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.15976331360946747</v>
       </c>
       <c r="F8" s="1">
+        <f>VLOOKUP(F$1&amp;$C8,Sheet2!$C:$H,MATCH($B8,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>4.142011834319527E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <f>VLOOKUP(G$1&amp;$C8,Sheet2!$C:$H,MATCH($B8,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.15976331360946747</v>
+      </c>
+      <c r="H8" s="1">
+        <f>VLOOKUP(H$1&amp;$C8,Sheet2!$C:$H,MATCH($B8,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.20710059171597633</v>
       </c>
-      <c r="G8" s="1">
+      <c r="I8" s="1">
+        <f>VLOOKUP(I$1&amp;$C8,Sheet2!$C:$H,MATCH($B8,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.42011834319526625</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <f>VLOOKUP($C8,[1]Sheet1!$A:$M,2,0)</f>
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="I8">
+        <v>0.9</v>
+      </c>
+      <c r="K8">
         <f>VLOOKUP($C8,[1]Sheet1!$A:$M,3,0)</f>
-        <v>0.125</v>
-      </c>
-      <c r="J8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L8">
         <f>VLOOKUP($C8,[1]Sheet1!$A:$M,4,0)</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="K8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M8">
         <f>VLOOKUP($C8,[1]Sheet1!$A:$M,5,0)</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <f>VLOOKUP($C8,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <f>VLOOKUP($C8,[1]Sheet1!$A:$M,11,0)</f>
         <v>1200</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <f>VLOOKUP($C8,[1]Sheet1!$A:$M,12,0)</f>
         <v>1200</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <f>VLOOKUP($C8,[1]Sheet1!$A:$M,13,0)</f>
         <v>1200</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R8">
+        <f>VLOOKUP(C8,[1]Sheet1!$A:$F,6,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1203,51 +1338,67 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
+        <f>VLOOKUP(D$1&amp;$C9,Sheet2!$C:$H,MATCH($B9,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.03</v>
       </c>
       <c r="E9" s="1">
-        <v>0.27500000000000002</v>
+        <f>VLOOKUP(E$1&amp;$C9,Sheet2!$C:$H,MATCH($B9,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F9" s="1">
+        <f>VLOOKUP(F$1&amp;$C9,Sheet2!$C:$H,MATCH($B9,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.04</v>
+      </c>
+      <c r="G9" s="1">
+        <f>VLOOKUP(G$1&amp;$C9,Sheet2!$C:$H,MATCH($B9,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="1">
+        <f>VLOOKUP(H$1&amp;$C9,Sheet2!$C:$H,MATCH($B9,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
+        <f>VLOOKUP(I$1&amp;$C9,Sheet2!$C:$H,MATCH($B9,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.53</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <f>VLOOKUP($C9,[1]Sheet1!$A:$M,2,0)</f>
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="I9">
+        <v>0.9</v>
+      </c>
+      <c r="K9">
         <f>VLOOKUP($C9,[1]Sheet1!$A:$M,3,0)</f>
-        <v>0.125</v>
-      </c>
-      <c r="J9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L9">
         <f>VLOOKUP($C9,[1]Sheet1!$A:$M,4,0)</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="K9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M9">
         <f>VLOOKUP($C9,[1]Sheet1!$A:$M,5,0)</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <f>VLOOKUP($C9,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <f>VLOOKUP($C9,[1]Sheet1!$A:$M,11,0)</f>
         <v>1200</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <f>VLOOKUP($C9,[1]Sheet1!$A:$M,12,0)</f>
         <v>1200</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <f>VLOOKUP($C9,[1]Sheet1!$A:$M,13,0)</f>
         <v>1200</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R9">
+        <f>VLOOKUP(C9,[1]Sheet1!$A:$F,6,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1258,51 +1409,67 @@
         <v>6</v>
       </c>
       <c r="D10" s="1">
+        <f>VLOOKUP(D$1&amp;$C10,Sheet2!$C:$H,MATCH($B10,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>3.4653465346534656E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>0.30198019801980197</v>
+        <f>VLOOKUP(E$1&amp;$C10,Sheet2!$C:$H,MATCH($B10,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.12871287128712872</v>
       </c>
       <c r="F10" s="1">
+        <f>VLOOKUP(F$1&amp;$C10,Sheet2!$C:$H,MATCH($B10,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>3.4653465346534656E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <f>VLOOKUP(G$1&amp;$C10,Sheet2!$C:$H,MATCH($B10,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.13861386138613863</v>
+      </c>
+      <c r="H10" s="1">
+        <f>VLOOKUP(H$1&amp;$C10,Sheet2!$C:$H,MATCH($B10,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.10891089108910891</v>
       </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
+        <f>VLOOKUP(I$1&amp;$C10,Sheet2!$C:$H,MATCH($B10,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.5544554455445545</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <f>VLOOKUP($C10,[1]Sheet1!$A:$M,2,0)</f>
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="I10">
+        <v>0.9</v>
+      </c>
+      <c r="K10">
         <f>VLOOKUP($C10,[1]Sheet1!$A:$M,3,0)</f>
-        <v>0.125</v>
-      </c>
-      <c r="J10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L10">
         <f>VLOOKUP($C10,[1]Sheet1!$A:$M,4,0)</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="K10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M10">
         <f>VLOOKUP($C10,[1]Sheet1!$A:$M,5,0)</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <f>VLOOKUP($C10,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <f>VLOOKUP($C10,[1]Sheet1!$A:$M,11,0)</f>
         <v>1200</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <f>VLOOKUP($C10,[1]Sheet1!$A:$M,12,0)</f>
         <v>1200</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <f>VLOOKUP($C10,[1]Sheet1!$A:$M,13,0)</f>
         <v>1200</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R10">
+        <f>VLOOKUP(C10,[1]Sheet1!$A:$F,6,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1313,51 +1480,67 @@
         <v>6</v>
       </c>
       <c r="D11" s="1">
+        <f>VLOOKUP(D$1&amp;$C11,Sheet2!$C:$H,MATCH($B11,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>1.2987012987012988E-2</v>
       </c>
       <c r="E11" s="1">
-        <v>0.4329004329004329</v>
+        <f>VLOOKUP(E$1&amp;$C11,Sheet2!$C:$H,MATCH($B11,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.15584415584415584</v>
       </c>
       <c r="F11" s="1">
+        <f>VLOOKUP(F$1&amp;$C11,Sheet2!$C:$H,MATCH($B11,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>3.896103896103896E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <f>VLOOKUP(G$1&amp;$C11,Sheet2!$C:$H,MATCH($B11,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="H11" s="1">
+        <f>VLOOKUP(H$1&amp;$C11,Sheet2!$C:$H,MATCH($B11,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.13852813852813853</v>
       </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
+        <f>VLOOKUP(I$1&amp;$C11,Sheet2!$C:$H,MATCH($B11,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.41558441558441561</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <f>VLOOKUP($C11,[1]Sheet1!$A:$M,2,0)</f>
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="I11">
+        <v>0.9</v>
+      </c>
+      <c r="K11">
         <f>VLOOKUP($C11,[1]Sheet1!$A:$M,3,0)</f>
-        <v>0.125</v>
-      </c>
-      <c r="J11">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L11">
         <f>VLOOKUP($C11,[1]Sheet1!$A:$M,4,0)</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="K11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M11">
         <f>VLOOKUP($C11,[1]Sheet1!$A:$M,5,0)</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <f>VLOOKUP($C11,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <f>VLOOKUP($C11,[1]Sheet1!$A:$M,11,0)</f>
         <v>1200</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <f>VLOOKUP($C11,[1]Sheet1!$A:$M,12,0)</f>
         <v>1200</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <f>VLOOKUP($C11,[1]Sheet1!$A:$M,13,0)</f>
         <v>1200</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R11">
+        <f>VLOOKUP(C11,[1]Sheet1!$A:$F,6,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1368,51 +1551,67 @@
         <v>7</v>
       </c>
       <c r="D12" s="1">
+        <f>VLOOKUP(D$1&amp;$C12,Sheet2!$C:$H,MATCH($B12,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>0.25793650793650796</v>
+        <f>VLOOKUP(E$1&amp;$C12,Sheet2!$C:$H,MATCH($B12,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.15476190476190477</v>
       </c>
       <c r="F12" s="1">
+        <f>VLOOKUP(F$1&amp;$C12,Sheet2!$C:$H,MATCH($B12,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <f>VLOOKUP(G$1&amp;$C12,Sheet2!$C:$H,MATCH($B12,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>7.9365079365079361E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <f>VLOOKUP(H$1&amp;$C12,Sheet2!$C:$H,MATCH($B12,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.19444444444444445</v>
       </c>
-      <c r="G12" s="1">
+      <c r="I12" s="1">
+        <f>VLOOKUP(I$1&amp;$C12,Sheet2!$C:$H,MATCH($B12,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.51190476190476186</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <f>VLOOKUP($C12,[1]Sheet1!$A:$M,2,0)</f>
         <v>0.88</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <f>VLOOKUP($C12,[1]Sheet1!$A:$M,3,0)</f>
         <v>0.12</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <f>VLOOKUP($C12,[1]Sheet1!$A:$M,4,0)</f>
         <v>0</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <f>VLOOKUP($C12,[1]Sheet1!$A:$M,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <f>VLOOKUP($C12,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <f>VLOOKUP($C12,[1]Sheet1!$A:$M,11,0)</f>
         <v>1200</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <f>VLOOKUP($C12,[1]Sheet1!$A:$M,12,0)</f>
         <v>0</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <f>VLOOKUP($C12,[1]Sheet1!$A:$M,13,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R12">
+        <f>VLOOKUP(C12,[1]Sheet1!$A:$F,6,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1423,51 +1622,67 @@
         <v>7</v>
       </c>
       <c r="D13" s="1">
+        <f>VLOOKUP(D$1&amp;$C13,Sheet2!$C:$H,MATCH($B13,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>9.1324200913242004E-3</v>
       </c>
       <c r="E13" s="1">
-        <v>0.27397260273972601</v>
+        <f>VLOOKUP(E$1&amp;$C13,Sheet2!$C:$H,MATCH($B13,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.14155251141552511</v>
       </c>
       <c r="F13" s="1">
+        <f>VLOOKUP(F$1&amp;$C13,Sheet2!$C:$H,MATCH($B13,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>3.1963470319634701E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <f>VLOOKUP(G$1&amp;$C13,Sheet2!$C:$H,MATCH($B13,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.1004566210045662</v>
+      </c>
+      <c r="H13" s="1">
+        <f>VLOOKUP(H$1&amp;$C13,Sheet2!$C:$H,MATCH($B13,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.22374429223744291</v>
       </c>
-      <c r="G13" s="1">
+      <c r="I13" s="1">
+        <f>VLOOKUP(I$1&amp;$C13,Sheet2!$C:$H,MATCH($B13,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.49315068493150682</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <f>VLOOKUP($C13,[1]Sheet1!$A:$M,2,0)</f>
         <v>0.88</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <f>VLOOKUP($C13,[1]Sheet1!$A:$M,3,0)</f>
         <v>0.12</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <f>VLOOKUP($C13,[1]Sheet1!$A:$M,4,0)</f>
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <f>VLOOKUP($C13,[1]Sheet1!$A:$M,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <f>VLOOKUP($C13,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <f>VLOOKUP($C13,[1]Sheet1!$A:$M,11,0)</f>
         <v>1200</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <f>VLOOKUP($C13,[1]Sheet1!$A:$M,12,0)</f>
         <v>0</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <f>VLOOKUP($C13,[1]Sheet1!$A:$M,13,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R13">
+        <f>VLOOKUP(C13,[1]Sheet1!$A:$F,6,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1478,51 +1693,67 @@
         <v>7</v>
       </c>
       <c r="D14" s="1">
+        <f>VLOOKUP(D$1&amp;$C14,Sheet2!$C:$H,MATCH($B14,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>1.2738853503184714E-2</v>
       </c>
       <c r="E14" s="1">
-        <v>0.28662420382165604</v>
+        <f>VLOOKUP(E$1&amp;$C14,Sheet2!$C:$H,MATCH($B14,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.15286624203821655</v>
       </c>
       <c r="F14" s="1">
+        <f>VLOOKUP(F$1&amp;$C14,Sheet2!$C:$H,MATCH($B14,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>3.1847133757961783E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <f>VLOOKUP(G$1&amp;$C14,Sheet2!$C:$H,MATCH($B14,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.10191082802547771</v>
+      </c>
+      <c r="H14" s="1">
+        <f>VLOOKUP(H$1&amp;$C14,Sheet2!$C:$H,MATCH($B14,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.16560509554140126</v>
       </c>
-      <c r="G14" s="1">
+      <c r="I14" s="1">
+        <f>VLOOKUP(I$1&amp;$C14,Sheet2!$C:$H,MATCH($B14,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.53503184713375795</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <f>VLOOKUP($C14,[1]Sheet1!$A:$M,2,0)</f>
         <v>0.88</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <f>VLOOKUP($C14,[1]Sheet1!$A:$M,3,0)</f>
         <v>0.12</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <f>VLOOKUP($C14,[1]Sheet1!$A:$M,4,0)</f>
         <v>0</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <f>VLOOKUP($C14,[1]Sheet1!$A:$M,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <f>VLOOKUP($C14,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <f>VLOOKUP($C14,[1]Sheet1!$A:$M,11,0)</f>
         <v>1200</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <f>VLOOKUP($C14,[1]Sheet1!$A:$M,12,0)</f>
         <v>0</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <f>VLOOKUP($C14,[1]Sheet1!$A:$M,13,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R14">
+        <f>VLOOKUP(C14,[1]Sheet1!$A:$F,6,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1533,51 +1764,67 @@
         <v>7</v>
       </c>
       <c r="D15" s="1">
+        <f>VLOOKUP(D$1&amp;$C15,Sheet2!$C:$H,MATCH($B15,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>6.3604240282685506E-2</v>
       </c>
       <c r="E15" s="1">
-        <v>0.25795053003533569</v>
+        <f>VLOOKUP(E$1&amp;$C15,Sheet2!$C:$H,MATCH($B15,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.15901060070671377</v>
       </c>
       <c r="F15" s="1">
+        <f>VLOOKUP(F$1&amp;$C15,Sheet2!$C:$H,MATCH($B15,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>2.4734982332155476E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <f>VLOOKUP(G$1&amp;$C15,Sheet2!$C:$H,MATCH($B15,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>7.4204946996466431E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <f>VLOOKUP(H$1&amp;$C15,Sheet2!$C:$H,MATCH($B15,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.13780918727915195</v>
       </c>
-      <c r="G15" s="1">
+      <c r="I15" s="1">
+        <f>VLOOKUP(I$1&amp;$C15,Sheet2!$C:$H,MATCH($B15,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.54063604240282681</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <f>VLOOKUP($C15,[1]Sheet1!$A:$M,2,0)</f>
         <v>0.88</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <f>VLOOKUP($C15,[1]Sheet1!$A:$M,3,0)</f>
         <v>0.12</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <f>VLOOKUP($C15,[1]Sheet1!$A:$M,4,0)</f>
         <v>0</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <f>VLOOKUP($C15,[1]Sheet1!$A:$M,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <f>VLOOKUP($C15,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <f>VLOOKUP($C15,[1]Sheet1!$A:$M,11,0)</f>
         <v>1200</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <f>VLOOKUP($C15,[1]Sheet1!$A:$M,12,0)</f>
         <v>0</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <f>VLOOKUP($C15,[1]Sheet1!$A:$M,13,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R15">
+        <f>VLOOKUP(C15,[1]Sheet1!$A:$F,6,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1588,51 +1835,67 @@
         <v>7</v>
       </c>
       <c r="D16" s="1">
+        <f>VLOOKUP(D$1&amp;$C16,Sheet2!$C:$H,MATCH($B16,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>1.968503937007874E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>0.33858267716535434</v>
+        <f>VLOOKUP(E$1&amp;$C16,Sheet2!$C:$H,MATCH($B16,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.20078740157480315</v>
       </c>
       <c r="F16" s="1">
+        <f>VLOOKUP(F$1&amp;$C16,Sheet2!$C:$H,MATCH($B16,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>1.5748031496062992E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <f>VLOOKUP(G$1&amp;$C16,Sheet2!$C:$H,MATCH($B16,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.12204724409448819</v>
+      </c>
+      <c r="H16" s="1">
+        <f>VLOOKUP(H$1&amp;$C16,Sheet2!$C:$H,MATCH($B16,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.10236220472440945</v>
       </c>
-      <c r="G16" s="1">
+      <c r="I16" s="1">
+        <f>VLOOKUP(I$1&amp;$C16,Sheet2!$C:$H,MATCH($B16,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.53937007874015752</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <f>VLOOKUP($C16,[1]Sheet1!$A:$M,2,0)</f>
         <v>0.88</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <f>VLOOKUP($C16,[1]Sheet1!$A:$M,3,0)</f>
         <v>0.12</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <f>VLOOKUP($C16,[1]Sheet1!$A:$M,4,0)</f>
         <v>0</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <f>VLOOKUP($C16,[1]Sheet1!$A:$M,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <f>VLOOKUP($C16,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <f>VLOOKUP($C16,[1]Sheet1!$A:$M,11,0)</f>
         <v>1200</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <f>VLOOKUP($C16,[1]Sheet1!$A:$M,12,0)</f>
         <v>0</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <f>VLOOKUP($C16,[1]Sheet1!$A:$M,13,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R16">
+        <f>VLOOKUP(C16,[1]Sheet1!$A:$F,6,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1643,51 +1906,67 @@
         <v>9</v>
       </c>
       <c r="D17" s="1">
+        <f>VLOOKUP(D$1&amp;$C17,Sheet2!$C:$H,MATCH($B17,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="E17" s="1">
+        <f>VLOOKUP(E$1&amp;$C17,Sheet2!$C:$H,MATCH($B17,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.22527472527472528</v>
+      </c>
+      <c r="F17" s="1">
+        <f>VLOOKUP(F$1&amp;$C17,Sheet2!$C:$H,MATCH($B17,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>1.098901098901099E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <f>VLOOKUP(G$1&amp;$C17,Sheet2!$C:$H,MATCH($B17,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="H17" s="1">
+        <f>VLOOKUP(H$1&amp;$C17,Sheet2!$C:$H,MATCH($B17,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.18131868131868131</v>
+      </c>
+      <c r="I17" s="1">
+        <f>VLOOKUP(I$1&amp;$C17,Sheet2!$C:$H,MATCH($B17,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.39010989010989011</v>
       </c>
-      <c r="F17" s="1">
-        <v>0.18131868131868131</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.39010989010989011</v>
-      </c>
-      <c r="H17">
+      <c r="J17">
         <f>VLOOKUP($C17,[1]Sheet1!$A:$M,2,0)</f>
-        <v>0.77</v>
-      </c>
-      <c r="I17">
+        <v>0.83</v>
+      </c>
+      <c r="K17">
         <f>VLOOKUP($C17,[1]Sheet1!$A:$M,3,0)</f>
-        <v>0.23</v>
-      </c>
-      <c r="J17">
+        <v>0.17</v>
+      </c>
+      <c r="L17">
         <f>VLOOKUP($C17,[1]Sheet1!$A:$M,4,0)</f>
         <v>0</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <f>VLOOKUP($C17,[1]Sheet1!$A:$M,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <f>VLOOKUP($C17,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <f>VLOOKUP($C17,[1]Sheet1!$A:$M,11,0)</f>
         <v>1200</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <f>VLOOKUP($C17,[1]Sheet1!$A:$M,12,0)</f>
         <v>0</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <f>VLOOKUP($C17,[1]Sheet1!$A:$M,13,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R17">
+        <f>VLOOKUP(C17,[1]Sheet1!$A:$F,6,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1698,51 +1977,67 @@
         <v>9</v>
       </c>
       <c r="D18" s="1">
+        <f>VLOOKUP(D$1&amp;$C18,Sheet2!$C:$H,MATCH($B18,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>3.0534351145038167E-2</v>
       </c>
       <c r="E18" s="1">
-        <v>0.31297709923664124</v>
+        <f>VLOOKUP(E$1&amp;$C18,Sheet2!$C:$H,MATCH($B18,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.10687022900763359</v>
       </c>
       <c r="F18" s="1">
+        <f>VLOOKUP(F$1&amp;$C18,Sheet2!$C:$H,MATCH($B18,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>5.3435114503816793E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <f>VLOOKUP(G$1&amp;$C18,Sheet2!$C:$H,MATCH($B18,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.15267175572519084</v>
+      </c>
+      <c r="H18" s="1">
+        <f>VLOOKUP(H$1&amp;$C18,Sheet2!$C:$H,MATCH($B18,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.16793893129770993</v>
       </c>
-      <c r="G18" s="1">
+      <c r="I18" s="1">
+        <f>VLOOKUP(I$1&amp;$C18,Sheet2!$C:$H,MATCH($B18,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.48854961832061067</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <f>VLOOKUP($C18,[1]Sheet1!$A:$M,2,0)</f>
-        <v>0.77</v>
-      </c>
-      <c r="I18">
+        <v>0.83</v>
+      </c>
+      <c r="K18">
         <f>VLOOKUP($C18,[1]Sheet1!$A:$M,3,0)</f>
-        <v>0.23</v>
-      </c>
-      <c r="J18">
+        <v>0.17</v>
+      </c>
+      <c r="L18">
         <f>VLOOKUP($C18,[1]Sheet1!$A:$M,4,0)</f>
         <v>0</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <f>VLOOKUP($C18,[1]Sheet1!$A:$M,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <f>VLOOKUP($C18,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <f>VLOOKUP($C18,[1]Sheet1!$A:$M,11,0)</f>
         <v>1200</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <f>VLOOKUP($C18,[1]Sheet1!$A:$M,12,0)</f>
         <v>0</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <f>VLOOKUP($C18,[1]Sheet1!$A:$M,13,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R18">
+        <f>VLOOKUP(C18,[1]Sheet1!$A:$F,6,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1753,51 +2048,67 @@
         <v>9</v>
       </c>
       <c r="D19" s="1">
+        <f>VLOOKUP(D$1&amp;$C19,Sheet2!$C:$H,MATCH($B19,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>2.0689655172413793E-2</v>
       </c>
       <c r="E19" s="1">
-        <v>0.35172413793103446</v>
+        <f>VLOOKUP(E$1&amp;$C19,Sheet2!$C:$H,MATCH($B19,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.17241379310344829</v>
       </c>
       <c r="F19" s="1">
+        <f>VLOOKUP(F$1&amp;$C19,Sheet2!$C:$H,MATCH($B19,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>2.7586206896551724E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <f>VLOOKUP(G$1&amp;$C19,Sheet2!$C:$H,MATCH($B19,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.15172413793103448</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
+        <f>VLOOKUP(H$1&amp;$C19,Sheet2!$C:$H,MATCH($B19,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.15172413793103448</v>
+      </c>
+      <c r="I19" s="1">
+        <f>VLOOKUP(I$1&amp;$C19,Sheet2!$C:$H,MATCH($B19,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.47586206896551725</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <f>VLOOKUP($C19,[1]Sheet1!$A:$M,2,0)</f>
-        <v>0.77</v>
-      </c>
-      <c r="I19">
+        <v>0.83</v>
+      </c>
+      <c r="K19">
         <f>VLOOKUP($C19,[1]Sheet1!$A:$M,3,0)</f>
-        <v>0.23</v>
-      </c>
-      <c r="J19">
+        <v>0.17</v>
+      </c>
+      <c r="L19">
         <f>VLOOKUP($C19,[1]Sheet1!$A:$M,4,0)</f>
         <v>0</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <f>VLOOKUP($C19,[1]Sheet1!$A:$M,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <f>VLOOKUP($C19,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <f>VLOOKUP($C19,[1]Sheet1!$A:$M,11,0)</f>
         <v>1200</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <f>VLOOKUP($C19,[1]Sheet1!$A:$M,12,0)</f>
         <v>0</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <f>VLOOKUP($C19,[1]Sheet1!$A:$M,13,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R19">
+        <f>VLOOKUP(C19,[1]Sheet1!$A:$F,6,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1808,51 +2119,67 @@
         <v>9</v>
       </c>
       <c r="D20" s="1">
+        <f>VLOOKUP(D$1&amp;$C20,Sheet2!$C:$H,MATCH($B20,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>4.3749999999999997E-2</v>
       </c>
       <c r="E20" s="1">
-        <v>0.32500000000000001</v>
+        <f>VLOOKUP(E$1&amp;$C20,Sheet2!$C:$H,MATCH($B20,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.15625</v>
       </c>
       <c r="F20" s="1">
+        <f>VLOOKUP(F$1&amp;$C20,Sheet2!$C:$H,MATCH($B20,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <f>VLOOKUP(G$1&amp;$C20,Sheet2!$C:$H,MATCH($B20,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.1125</v>
+      </c>
+      <c r="H20" s="1">
+        <f>VLOOKUP(H$1&amp;$C20,Sheet2!$C:$H,MATCH($B20,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.11874999999999999</v>
       </c>
-      <c r="G20" s="1">
+      <c r="I20" s="1">
+        <f>VLOOKUP(I$1&amp;$C20,Sheet2!$C:$H,MATCH($B20,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.51249999999999996</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <f>VLOOKUP($C20,[1]Sheet1!$A:$M,2,0)</f>
-        <v>0.77</v>
-      </c>
-      <c r="I20">
+        <v>0.83</v>
+      </c>
+      <c r="K20">
         <f>VLOOKUP($C20,[1]Sheet1!$A:$M,3,0)</f>
-        <v>0.23</v>
-      </c>
-      <c r="J20">
+        <v>0.17</v>
+      </c>
+      <c r="L20">
         <f>VLOOKUP($C20,[1]Sheet1!$A:$M,4,0)</f>
         <v>0</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <f>VLOOKUP($C20,[1]Sheet1!$A:$M,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <f>VLOOKUP($C20,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <f>VLOOKUP($C20,[1]Sheet1!$A:$M,11,0)</f>
         <v>1200</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <f>VLOOKUP($C20,[1]Sheet1!$A:$M,12,0)</f>
         <v>0</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <f>VLOOKUP($C20,[1]Sheet1!$A:$M,13,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R20">
+        <f>VLOOKUP(C20,[1]Sheet1!$A:$F,6,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1863,51 +2190,67 @@
         <v>9</v>
       </c>
       <c r="D21" s="1">
+        <f>VLOOKUP(D$1&amp;$C21,Sheet2!$C:$H,MATCH($B21,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>1.2345679012345678E-2</v>
       </c>
       <c r="E21" s="1">
-        <v>0.41358024691358025</v>
+        <f>VLOOKUP(E$1&amp;$C21,Sheet2!$C:$H,MATCH($B21,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.16049382716049382</v>
       </c>
       <c r="F21" s="1">
+        <f>VLOOKUP(F$1&amp;$C21,Sheet2!$C:$H,MATCH($B21,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>6.1728395061728392E-3</v>
+      </c>
+      <c r="G21" s="1">
+        <f>VLOOKUP(G$1&amp;$C21,Sheet2!$C:$H,MATCH($B21,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.24691358024691357</v>
+      </c>
+      <c r="H21" s="1">
+        <f>VLOOKUP(H$1&amp;$C21,Sheet2!$C:$H,MATCH($B21,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.12345679012345678</v>
       </c>
-      <c r="G21" s="1">
+      <c r="I21" s="1">
+        <f>VLOOKUP(I$1&amp;$C21,Sheet2!$C:$H,MATCH($B21,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.45061728395061729</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <f>VLOOKUP($C21,[1]Sheet1!$A:$M,2,0)</f>
-        <v>0.77</v>
-      </c>
-      <c r="I21">
+        <v>0.83</v>
+      </c>
+      <c r="K21">
         <f>VLOOKUP($C21,[1]Sheet1!$A:$M,3,0)</f>
-        <v>0.23</v>
-      </c>
-      <c r="J21">
+        <v>0.17</v>
+      </c>
+      <c r="L21">
         <f>VLOOKUP($C21,[1]Sheet1!$A:$M,4,0)</f>
         <v>0</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <f>VLOOKUP($C21,[1]Sheet1!$A:$M,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <f>VLOOKUP($C21,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <f>VLOOKUP($C21,[1]Sheet1!$A:$M,11,0)</f>
         <v>1200</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <f>VLOOKUP($C21,[1]Sheet1!$A:$M,12,0)</f>
         <v>0</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <f>VLOOKUP($C21,[1]Sheet1!$A:$M,13,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R21">
+        <f>VLOOKUP(C21,[1]Sheet1!$A:$F,6,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1918,51 +2261,67 @@
         <v>10</v>
       </c>
       <c r="D22" s="1">
+        <f>VLOOKUP(D$1&amp;$C22,Sheet2!$C:$H,MATCH($B22,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>2.6315789473684209E-2</v>
       </c>
       <c r="E22" s="1">
-        <v>0.35526315789473684</v>
+        <f>VLOOKUP(E$1&amp;$C22,Sheet2!$C:$H,MATCH($B22,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.17105263157894737</v>
       </c>
       <c r="F22" s="1">
+        <f>VLOOKUP(F$1&amp;$C22,Sheet2!$C:$H,MATCH($B22,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>1.9736842105263157E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <f>VLOOKUP(G$1&amp;$C22,Sheet2!$C:$H,MATCH($B22,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.16447368421052633</v>
+      </c>
+      <c r="H22" s="1">
+        <f>VLOOKUP(H$1&amp;$C22,Sheet2!$C:$H,MATCH($B22,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.14473684210526316</v>
       </c>
-      <c r="G22" s="1">
+      <c r="I22" s="1">
+        <f>VLOOKUP(I$1&amp;$C22,Sheet2!$C:$H,MATCH($B22,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.47368421052631576</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <f>VLOOKUP($C22,[1]Sheet1!$A:$M,2,0)</f>
-        <v>0.89</v>
-      </c>
-      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="K22">
         <f>VLOOKUP($C22,[1]Sheet1!$A:$M,3,0)</f>
-        <v>0.11</v>
-      </c>
-      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
         <f>VLOOKUP($C22,[1]Sheet1!$A:$M,4,0)</f>
         <v>0</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <f>VLOOKUP($C22,[1]Sheet1!$A:$M,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <f>VLOOKUP($C22,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <f>VLOOKUP($C22,[1]Sheet1!$A:$M,11,0)</f>
-        <v>2400</v>
-      </c>
-      <c r="N22">
+        <v>1200</v>
+      </c>
+      <c r="P22">
         <f>VLOOKUP($C22,[1]Sheet1!$A:$M,12,0)</f>
         <v>0</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <f>VLOOKUP($C22,[1]Sheet1!$A:$M,13,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R22">
+        <f>VLOOKUP(C22,[1]Sheet1!$A:$F,6,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1973,51 +2332,67 @@
         <v>10</v>
       </c>
       <c r="D23" s="1">
+        <f>VLOOKUP(D$1&amp;$C23,Sheet2!$C:$H,MATCH($B23,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="E23" s="1">
-        <v>0.22151898734177214</v>
+        <f>VLOOKUP(E$1&amp;$C23,Sheet2!$C:$H,MATCH($B23,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.10759493670886076</v>
       </c>
       <c r="F23" s="1">
+        <f>VLOOKUP(F$1&amp;$C23,Sheet2!$C:$H,MATCH($B23,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <f>VLOOKUP(G$1&amp;$C23,Sheet2!$C:$H,MATCH($B23,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>8.8607594936708861E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <f>VLOOKUP(H$1&amp;$C23,Sheet2!$C:$H,MATCH($B23,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.21518987341772153</v>
       </c>
-      <c r="G23" s="1">
+      <c r="I23" s="1">
+        <f>VLOOKUP(I$1&amp;$C23,Sheet2!$C:$H,MATCH($B23,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.55063291139240511</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <f>VLOOKUP($C23,[1]Sheet1!$A:$M,2,0)</f>
-        <v>0.89</v>
-      </c>
-      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="K23">
         <f>VLOOKUP($C23,[1]Sheet1!$A:$M,3,0)</f>
-        <v>0.11</v>
-      </c>
-      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
         <f>VLOOKUP($C23,[1]Sheet1!$A:$M,4,0)</f>
         <v>0</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <f>VLOOKUP($C23,[1]Sheet1!$A:$M,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <f>VLOOKUP($C23,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <f>VLOOKUP($C23,[1]Sheet1!$A:$M,11,0)</f>
-        <v>2400</v>
-      </c>
-      <c r="N23">
+        <v>1200</v>
+      </c>
+      <c r="P23">
         <f>VLOOKUP($C23,[1]Sheet1!$A:$M,12,0)</f>
         <v>0</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <f>VLOOKUP($C23,[1]Sheet1!$A:$M,13,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R23">
+        <f>VLOOKUP(C23,[1]Sheet1!$A:$F,6,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -2028,51 +2403,67 @@
         <v>10</v>
       </c>
       <c r="D24" s="1">
+        <f>VLOOKUP(D$1&amp;$C24,Sheet2!$C:$H,MATCH($B24,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>6.6225165562913907E-3</v>
       </c>
       <c r="E24" s="1">
-        <v>0.27814569536423839</v>
+        <f>VLOOKUP(E$1&amp;$C24,Sheet2!$C:$H,MATCH($B24,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.12582781456953643</v>
       </c>
       <c r="F24" s="1">
+        <f>VLOOKUP(F$1&amp;$C24,Sheet2!$C:$H,MATCH($B24,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>1.9867549668874173E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <f>VLOOKUP(G$1&amp;$C24,Sheet2!$C:$H,MATCH($B24,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.13245033112582782</v>
+      </c>
+      <c r="H24" s="1">
+        <f>VLOOKUP(H$1&amp;$C24,Sheet2!$C:$H,MATCH($B24,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.2119205298013245</v>
       </c>
-      <c r="G24" s="1">
+      <c r="I24" s="1">
+        <f>VLOOKUP(I$1&amp;$C24,Sheet2!$C:$H,MATCH($B24,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.50331125827814571</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <f>VLOOKUP($C24,[1]Sheet1!$A:$M,2,0)</f>
-        <v>0.89</v>
-      </c>
-      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="K24">
         <f>VLOOKUP($C24,[1]Sheet1!$A:$M,3,0)</f>
-        <v>0.11</v>
-      </c>
-      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <f>VLOOKUP($C24,[1]Sheet1!$A:$M,4,0)</f>
         <v>0</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <f>VLOOKUP($C24,[1]Sheet1!$A:$M,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <f>VLOOKUP($C24,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <f>VLOOKUP($C24,[1]Sheet1!$A:$M,11,0)</f>
-        <v>2400</v>
-      </c>
-      <c r="N24">
+        <v>1200</v>
+      </c>
+      <c r="P24">
         <f>VLOOKUP($C24,[1]Sheet1!$A:$M,12,0)</f>
         <v>0</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <f>VLOOKUP($C24,[1]Sheet1!$A:$M,13,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R24">
+        <f>VLOOKUP(C24,[1]Sheet1!$A:$F,6,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2083,51 +2474,67 @@
         <v>10</v>
       </c>
       <c r="D25" s="1">
+        <f>VLOOKUP(D$1&amp;$C25,Sheet2!$C:$H,MATCH($B25,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="E25" s="1">
-        <v>0.21764705882352942</v>
+        <f>VLOOKUP(E$1&amp;$C25,Sheet2!$C:$H,MATCH($B25,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.10588235294117647</v>
       </c>
       <c r="F25" s="1">
+        <f>VLOOKUP(F$1&amp;$C25,Sheet2!$C:$H,MATCH($B25,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <f>VLOOKUP(G$1&amp;$C25,Sheet2!$C:$H,MATCH($B25,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>8.2352941176470587E-2</v>
+      </c>
+      <c r="H25" s="1">
+        <f>VLOOKUP(H$1&amp;$C25,Sheet2!$C:$H,MATCH($B25,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.12941176470588237</v>
       </c>
-      <c r="G25" s="1">
+      <c r="I25" s="1">
+        <f>VLOOKUP(I$1&amp;$C25,Sheet2!$C:$H,MATCH($B25,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.62352941176470589</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <f>VLOOKUP($C25,[1]Sheet1!$A:$M,2,0)</f>
-        <v>0.89</v>
-      </c>
-      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="K25">
         <f>VLOOKUP($C25,[1]Sheet1!$A:$M,3,0)</f>
-        <v>0.11</v>
-      </c>
-      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <f>VLOOKUP($C25,[1]Sheet1!$A:$M,4,0)</f>
         <v>0</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <f>VLOOKUP($C25,[1]Sheet1!$A:$M,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <f>VLOOKUP($C25,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <f>VLOOKUP($C25,[1]Sheet1!$A:$M,11,0)</f>
-        <v>2400</v>
-      </c>
-      <c r="N25">
+        <v>1200</v>
+      </c>
+      <c r="P25">
         <f>VLOOKUP($C25,[1]Sheet1!$A:$M,12,0)</f>
         <v>0</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <f>VLOOKUP($C25,[1]Sheet1!$A:$M,13,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R25">
+        <f>VLOOKUP(C25,[1]Sheet1!$A:$F,6,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2138,53 +2545,930 @@
         <v>10</v>
       </c>
       <c r="D26" s="1">
+        <f>VLOOKUP(D$1&amp;$C26,Sheet2!$C:$H,MATCH($B26,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>0.35353535353535354</v>
+        <f>VLOOKUP(E$1&amp;$C26,Sheet2!$C:$H,MATCH($B26,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.16161616161616163</v>
       </c>
       <c r="F26" s="1">
+        <f>VLOOKUP(F$1&amp;$C26,Sheet2!$C:$H,MATCH($B26,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>1.5151515151515152E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <f>VLOOKUP(G$1&amp;$C26,Sheet2!$C:$H,MATCH($B26,Sheet2!$D$1:$H$1,0)+1,0)</f>
+        <v>0.17676767676767677</v>
+      </c>
+      <c r="H26" s="1">
+        <f>VLOOKUP(H$1&amp;$C26,Sheet2!$C:$H,MATCH($B26,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="G26" s="1">
+      <c r="I26" s="1">
+        <f>VLOOKUP(I$1&amp;$C26,Sheet2!$C:$H,MATCH($B26,Sheet2!$D$1:$H$1,0)+1,0)</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <f>VLOOKUP($C26,[1]Sheet1!$A:$M,2,0)</f>
-        <v>0.89</v>
-      </c>
-      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="K26">
         <f>VLOOKUP($C26,[1]Sheet1!$A:$M,3,0)</f>
-        <v>0.11</v>
-      </c>
-      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <f>VLOOKUP($C26,[1]Sheet1!$A:$M,4,0)</f>
         <v>0</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <f>VLOOKUP($C26,[1]Sheet1!$A:$M,5,0)</f>
         <v>0</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <f>VLOOKUP($C26,[1]Sheet1!$A:$M,10,0)</f>
         <v>1200</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <f>VLOOKUP($C26,[1]Sheet1!$A:$M,11,0)</f>
-        <v>2400</v>
-      </c>
-      <c r="N26">
+        <v>1200</v>
+      </c>
+      <c r="P26">
         <f>VLOOKUP($C26,[1]Sheet1!$A:$M,12,0)</f>
         <v>0</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <f>VLOOKUP($C26,[1]Sheet1!$A:$M,13,0)</f>
         <v>0</v>
       </c>
+      <c r="R26">
+        <f>VLOOKUP(C26,[1]Sheet1!$A:$F,6,0)</f>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O26" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Q26" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Body or muscle pain"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E36416-6024-4B3A-8FE7-4671A899573E}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="44.26953125" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="5" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>Share_of_population_taking_nothingMenstrual or gynecological pain</v>
+      </c>
+      <c r="D2">
+        <v>3.896103896103896E-2</v>
+      </c>
+      <c r="E2">
+        <v>5.1948051948051951E-2</v>
+      </c>
+      <c r="F2">
+        <v>2.9702970297029702E-2</v>
+      </c>
+      <c r="G2">
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="H2">
+        <v>1.7699115044247787E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C31" si="0">A3&amp;B3</f>
+        <v>Share_of_population_taking_Rx_ibuprofenMenstrual or gynecological pain</v>
+      </c>
+      <c r="D3">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E3">
+        <v>0.11688311688311688</v>
+      </c>
+      <c r="F3">
+        <v>0.22772277227722773</v>
+      </c>
+      <c r="G3">
+        <v>0.18269230769230768</v>
+      </c>
+      <c r="H3">
+        <v>8.8495575221238937E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_Rx_other_OTCMenstrual or gynecological pain</v>
+      </c>
+      <c r="D4">
+        <v>5.1948051948051951E-2</v>
+      </c>
+      <c r="E4">
+        <v>5.1948051948051951E-2</v>
+      </c>
+      <c r="F4">
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="G4">
+        <v>2.8846153846153848E-2</v>
+      </c>
+      <c r="H4">
+        <v>8.8495575221238937E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_Rx_othersMenstrual or gynecological pain</v>
+      </c>
+      <c r="D5">
+        <v>2.5974025974025976E-2</v>
+      </c>
+      <c r="E5">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="F5">
+        <v>8.9108910891089105E-2</v>
+      </c>
+      <c r="G5">
+        <v>4.807692307692308E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.13274336283185842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_non_medical_alternativesMenstrual or gynecological pain</v>
+      </c>
+      <c r="D6">
+        <v>0.19480519480519481</v>
+      </c>
+      <c r="E6">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="F6">
+        <v>0.13861386138613863</v>
+      </c>
+      <c r="G6">
+        <v>0.125</v>
+      </c>
+      <c r="H6">
+        <v>0.15044247787610621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_alternativesMenstrual or gynecological pain</v>
+      </c>
+      <c r="D7">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="E7">
+        <v>0.41558441558441561</v>
+      </c>
+      <c r="F7">
+        <v>0.50495049504950495</v>
+      </c>
+      <c r="G7">
+        <v>0.57692307692307687</v>
+      </c>
+      <c r="H7">
+        <v>0.60176991150442483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_nothingCommon cold</v>
+      </c>
+      <c r="D8">
+        <v>1.7543859649122806E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.1834319526627219E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.03</v>
+      </c>
+      <c r="G8">
+        <v>3.4653465346534656E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.2987012987012988E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_Rx_ibuprofenCommon cold</v>
+      </c>
+      <c r="D9">
+        <v>0.16374269005847952</v>
+      </c>
+      <c r="E9">
+        <v>0.15976331360946747</v>
+      </c>
+      <c r="F9">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.12871287128712872</v>
+      </c>
+      <c r="H9">
+        <v>0.15584415584415584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_Rx_other_OTCCommon cold</v>
+      </c>
+      <c r="D10">
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="E10">
+        <v>4.142011834319527E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.04</v>
+      </c>
+      <c r="G10">
+        <v>3.4653465346534656E-2</v>
+      </c>
+      <c r="H10">
+        <v>3.896103896103896E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_Rx_othersCommon cold</v>
+      </c>
+      <c r="D11">
+        <v>9.9415204678362568E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.15976331360946747</v>
+      </c>
+      <c r="F11">
+        <v>0.1</v>
+      </c>
+      <c r="G11">
+        <v>0.13861386138613863</v>
+      </c>
+      <c r="H11">
+        <v>0.23809523809523808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_non_medical_alternativesCommon cold</v>
+      </c>
+      <c r="D12">
+        <v>0.1871345029239766</v>
+      </c>
+      <c r="E12">
+        <v>0.20710059171597633</v>
+      </c>
+      <c r="F12">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G12">
+        <v>0.10891089108910891</v>
+      </c>
+      <c r="H12">
+        <v>0.13852813852813853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_alternativesCommon cold</v>
+      </c>
+      <c r="D13">
+        <v>0.49707602339181284</v>
+      </c>
+      <c r="E13">
+        <v>0.42011834319526625</v>
+      </c>
+      <c r="F13">
+        <v>0.53</v>
+      </c>
+      <c r="G13">
+        <v>0.5544554455445545</v>
+      </c>
+      <c r="H13">
+        <v>0.41558441558441561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_nothingHeadache or migraine</v>
+      </c>
+      <c r="D14">
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="E14">
+        <v>9.1324200913242004E-3</v>
+      </c>
+      <c r="F14">
+        <v>1.2738853503184714E-2</v>
+      </c>
+      <c r="G14">
+        <v>6.3604240282685506E-2</v>
+      </c>
+      <c r="H14">
+        <v>1.968503937007874E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_Rx_ibuprofenHeadache or migraine</v>
+      </c>
+      <c r="D15">
+        <v>0.15476190476190477</v>
+      </c>
+      <c r="E15">
+        <v>0.14155251141552511</v>
+      </c>
+      <c r="F15">
+        <v>0.15286624203821655</v>
+      </c>
+      <c r="G15">
+        <v>0.15901060070671377</v>
+      </c>
+      <c r="H15">
+        <v>0.20078740157480315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_Rx_other_OTCHeadache or migraine</v>
+      </c>
+      <c r="D16">
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="E16">
+        <v>3.1963470319634701E-2</v>
+      </c>
+      <c r="F16">
+        <v>3.1847133757961783E-2</v>
+      </c>
+      <c r="G16">
+        <v>2.4734982332155476E-2</v>
+      </c>
+      <c r="H16">
+        <v>1.5748031496062992E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_Rx_othersHeadache or migraine</v>
+      </c>
+      <c r="D17">
+        <v>7.9365079365079361E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.1004566210045662</v>
+      </c>
+      <c r="F17">
+        <v>0.10191082802547771</v>
+      </c>
+      <c r="G17">
+        <v>7.4204946996466431E-2</v>
+      </c>
+      <c r="H17">
+        <v>0.12204724409448819</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_non_medical_alternativesHeadache or migraine</v>
+      </c>
+      <c r="D18">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="E18">
+        <v>0.22374429223744291</v>
+      </c>
+      <c r="F18">
+        <v>0.16560509554140126</v>
+      </c>
+      <c r="G18">
+        <v>0.13780918727915195</v>
+      </c>
+      <c r="H18">
+        <v>0.10236220472440945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_alternativesHeadache or migraine</v>
+      </c>
+      <c r="D19">
+        <v>0.51190476190476186</v>
+      </c>
+      <c r="E19">
+        <v>0.49315068493150682</v>
+      </c>
+      <c r="F19">
+        <v>0.53503184713375795</v>
+      </c>
+      <c r="G19">
+        <v>0.54063604240282681</v>
+      </c>
+      <c r="H19">
+        <v>0.53937007874015752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_nothingBody or muscle pain</v>
+      </c>
+      <c r="D20">
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="E20">
+        <v>3.0534351145038167E-2</v>
+      </c>
+      <c r="F20">
+        <v>2.0689655172413793E-2</v>
+      </c>
+      <c r="G20">
+        <v>4.3749999999999997E-2</v>
+      </c>
+      <c r="H20">
+        <v>1.2345679012345678E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_Rx_ibuprofenBody or muscle pain</v>
+      </c>
+      <c r="D21">
+        <v>0.22527472527472528</v>
+      </c>
+      <c r="E21">
+        <v>0.10687022900763359</v>
+      </c>
+      <c r="F21">
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="G21">
+        <v>0.15625</v>
+      </c>
+      <c r="H21">
+        <v>0.16049382716049382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_Rx_other_OTCBody or muscle pain</v>
+      </c>
+      <c r="D22">
+        <v>1.098901098901099E-2</v>
+      </c>
+      <c r="E22">
+        <v>5.3435114503816793E-2</v>
+      </c>
+      <c r="F22">
+        <v>2.7586206896551724E-2</v>
+      </c>
+      <c r="G22">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="H22">
+        <v>6.1728395061728392E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_Rx_othersBody or muscle pain</v>
+      </c>
+      <c r="D23">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="E23">
+        <v>0.15267175572519084</v>
+      </c>
+      <c r="F23">
+        <v>0.15172413793103448</v>
+      </c>
+      <c r="G23">
+        <v>0.1125</v>
+      </c>
+      <c r="H23">
+        <v>0.24691358024691357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_non_medical_alternativesBody or muscle pain</v>
+      </c>
+      <c r="D24">
+        <v>0.18131868131868131</v>
+      </c>
+      <c r="E24">
+        <v>0.16793893129770993</v>
+      </c>
+      <c r="F24">
+        <v>0.15172413793103448</v>
+      </c>
+      <c r="G24">
+        <v>0.11874999999999999</v>
+      </c>
+      <c r="H24">
+        <v>0.12345679012345678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_alternativesBody or muscle pain</v>
+      </c>
+      <c r="D25">
+        <v>0.39010989010989011</v>
+      </c>
+      <c r="E25">
+        <v>0.48854961832061067</v>
+      </c>
+      <c r="F25">
+        <v>0.47586206896551725</v>
+      </c>
+      <c r="G25">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="H25">
+        <v>0.45061728395061729</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_nothingMouth or dental pain</v>
+      </c>
+      <c r="D26">
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E26">
+        <v>1.2658227848101266E-2</v>
+      </c>
+      <c r="F26">
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="G26">
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_Rx_ibuprofenMouth or dental pain</v>
+      </c>
+      <c r="D27">
+        <v>0.17105263157894737</v>
+      </c>
+      <c r="E27">
+        <v>0.10759493670886076</v>
+      </c>
+      <c r="F27">
+        <v>0.12582781456953643</v>
+      </c>
+      <c r="G27">
+        <v>0.10588235294117647</v>
+      </c>
+      <c r="H27">
+        <v>0.16161616161616163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_Rx_other_OTCMouth or dental pain</v>
+      </c>
+      <c r="D28">
+        <v>1.9736842105263157E-2</v>
+      </c>
+      <c r="E28">
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="F28">
+        <v>1.9867549668874173E-2</v>
+      </c>
+      <c r="G28">
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="H28">
+        <v>1.5151515151515152E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_Rx_othersMouth or dental pain</v>
+      </c>
+      <c r="D29">
+        <v>0.16447368421052633</v>
+      </c>
+      <c r="E29">
+        <v>8.8607594936708861E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.13245033112582782</v>
+      </c>
+      <c r="G29">
+        <v>8.2352941176470587E-2</v>
+      </c>
+      <c r="H29">
+        <v>0.17676767676767677</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_non_medical_alternativesMouth or dental pain</v>
+      </c>
+      <c r="D30">
+        <v>0.14473684210526316</v>
+      </c>
+      <c r="E30">
+        <v>0.21518987341772153</v>
+      </c>
+      <c r="F30">
+        <v>0.2119205298013245</v>
+      </c>
+      <c r="G30">
+        <v>0.12941176470588237</v>
+      </c>
+      <c r="H30">
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>Share_of_population_taking_alternativesMouth or dental pain</v>
+      </c>
+      <c r="D31">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="E31">
+        <v>0.55063291139240511</v>
+      </c>
+      <c r="F31">
+        <v>0.50331125827814571</v>
+      </c>
+      <c r="G31">
+        <v>0.62352941176470589</v>
+      </c>
+      <c r="H31">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>